--- a/bin/dataEngine/DataEngine.xlsx
+++ b/bin/dataEngine/DataEngine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
+    <workbookView activeTab="1" windowHeight="7950" windowWidth="14805" xWindow="240" yWindow="165"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Cases" sheetId="2" r:id="rId1"/>
-    <sheet name="Test Steps" sheetId="1" r:id="rId2"/>
-    <sheet name="Test Data" sheetId="3" r:id="rId3"/>
-    <sheet name="Settings" sheetId="4" r:id="rId4"/>
+    <sheet name="Test Cases" r:id="rId1" sheetId="2"/>
+    <sheet name="Test Steps" r:id="rId2" sheetId="1"/>
+    <sheet name="Test Data" r:id="rId3" sheetId="3"/>
+    <sheet name="Settings" r:id="rId4" sheetId="4"/>
   </sheets>
   <definedNames>
     <definedName name="Action_Keywords">Settings!$D$2:$D$8</definedName>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="68">
   <si>
     <t>Description</t>
   </si>
@@ -233,6 +233,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -314,29 +315,29 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -353,10 +354,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -391,7 +392,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -426,7 +427,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -514,7 +515,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -523,13 +524,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -539,7 +540,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -548,7 +549,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -557,7 +558,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -567,12 +568,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -603,7 +604,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -622,7 +623,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -634,7 +635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -643,12 +644,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="55.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="55.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -691,33 +692,33 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="32.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="38.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="38.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -928,7 +929,7 @@
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1105,23 +1106,23 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D17">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D2:D17" type="list">
       <formula1>Page_Name</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F17">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="F2:F17" type="list">
       <formula1>Action_Keywords</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E17">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="E2:E17" type="list">
       <formula1>INDIRECT(D2)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -1130,10 +1131,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="22.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="4" customWidth="true" width="22.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -1213,15 +1214,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink r:id="rId1" ref="C2"/>
+    <hyperlink r:id="rId2" ref="C3"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -1230,10 +1231,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="4" customWidth="true" width="23.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="29.25" r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>32</v>
       </c>
@@ -1320,6 +1321,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>